--- a/biology/Médecine/Muzuzangabo/Muzuzangabo.xlsx
+++ b/biology/Médecine/Muzuzangabo/Muzuzangabo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muzuzangabo est un film documentaire espagnol réalisé en 2006.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce documentaire montre l’énergie, la vie et l’espoir, à travers le regard de Carlos Cordero, activiste qui a fait de son état séropositif son outil de travail. Dans une ville congolaise qui renaît après 10 ans de guerre civile, Carlos réveille les Africains qui initient leur lutte contre le sida et leur transmet toute son expérience en tant que personne vivant avec le virus depuis les années 90.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Sergi Agustí
 Production : Tansparent Productions - Cristina López Palao
